--- a/src/test/resources/dataProviderFile.xlsx
+++ b/src/test/resources/dataProviderFile.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="500">
   <si>
     <t>To Do: Crear una cuenta nueva mail generica y publica, para desde alli generar los repo Git; con esto se podra luego hacer los merges sin problemas.</t>
   </si>
@@ -724,6 +724,9 @@
     <t>TC21</t>
   </si>
   <si>
+    <t>testSearchBarWithDataProvider</t>
+  </si>
+  <si>
     <t>TC23</t>
   </si>
   <si>
@@ -907,37 +910,25 @@
     <t>Y</t>
   </si>
   <si>
-    <t>TC-DP1</t>
-  </si>
-  <si>
-    <t>cuaderno azul</t>
-  </si>
-  <si>
-    <t>TC-DP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">agenda </t>
-  </si>
-  <si>
-    <t>TC-DP3</t>
-  </si>
-  <si>
-    <t>TC-DP4</t>
-  </si>
-  <si>
-    <t>TC-DP5</t>
-  </si>
-  <si>
-    <t>TC-DP6</t>
-  </si>
-  <si>
-    <t>TC-DP7</t>
-  </si>
-  <si>
-    <t>TC-DP8</t>
-  </si>
-  <si>
-    <t>TC-DP9</t>
+    <t>DP1</t>
+  </si>
+  <si>
+    <t>mouse</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>DP2</t>
+  </si>
+  <si>
+    <t>monitores</t>
+  </si>
+  <si>
+    <t>DP3</t>
+  </si>
+  <si>
+    <t>teclado mecanico</t>
   </si>
   <si>
     <t>verifyLoginMenuTest</t>
@@ -3131,7 +3122,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="122" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3">
@@ -3162,7 +3153,7 @@
         <v>111</v>
       </c>
       <c r="H4" s="156" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5">
@@ -3170,19 +3161,19 @@
         <v>1.0</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D5" s="69" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E5" s="58">
         <v>1.0</v>
       </c>
       <c r="F5" s="59" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="G5" s="59" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H5" s="3"/>
     </row>
@@ -3194,10 +3185,10 @@
         <v>2.0</v>
       </c>
       <c r="F6" s="59" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G6" s="157" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="H6" s="3"/>
     </row>
@@ -3328,7 +3319,7 @@
       </c>
       <c r="C4" s="57"/>
       <c r="D4" s="69" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E4" s="58">
         <v>1.0</v>
@@ -3462,7 +3453,7 @@
       </c>
       <c r="C5" s="57"/>
       <c r="D5" s="69" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E5" s="58">
         <v>1.0</v>
@@ -3728,87 +3719,77 @@
       <c r="B25" s="1"/>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="38" t="s">
+    <row r="30">
+      <c r="A30" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="40"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="41"/>
-      <c r="F30" s="42"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="40"/>
     </row>
     <row r="31">
-      <c r="A31" s="43"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="45"/>
+      <c r="A31" s="41"/>
+      <c r="F31" s="42"/>
     </row>
     <row r="32">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="43"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="45"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B33" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="47" t="s">
+      <c r="C33" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="48" t="s">
+      <c r="D33" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="E32" s="48" t="s">
+      <c r="E33" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="F32" s="48" t="s">
+      <c r="F33" s="48" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="49">
+    <row r="34">
+      <c r="A34" s="49">
         <v>1.0</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="B34" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C34" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="D33" s="51">
+      <c r="D34" s="51">
         <v>1.0</v>
       </c>
-      <c r="E33" s="52" t="s">
+      <c r="E34" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="F33" s="52" t="s">
+      <c r="F34" s="52" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="13"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="51">
-        <v>2.0</v>
-      </c>
-      <c r="E34" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="F34" s="52" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="35">
@@ -3816,13 +3797,13 @@
       <c r="B35" s="42"/>
       <c r="C35" s="42"/>
       <c r="D35" s="51">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E35" s="52" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F35" s="52" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36">
@@ -3830,13 +3811,13 @@
       <c r="B36" s="42"/>
       <c r="C36" s="42"/>
       <c r="D36" s="51">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E36" s="52" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F36" s="52" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37">
@@ -3844,13 +3825,13 @@
       <c r="B37" s="42"/>
       <c r="C37" s="42"/>
       <c r="D37" s="51">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E37" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="F37" s="53" t="s">
-        <v>123</v>
+        <v>120</v>
+      </c>
+      <c r="F37" s="52" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="38">
@@ -3858,13 +3839,13 @@
       <c r="B38" s="42"/>
       <c r="C38" s="42"/>
       <c r="D38" s="51">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="E38" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="F38" s="52" t="s">
-        <v>125</v>
+        <v>122</v>
+      </c>
+      <c r="F38" s="53" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="39">
@@ -3872,27 +3853,27 @@
       <c r="B39" s="42"/>
       <c r="C39" s="42"/>
       <c r="D39" s="51">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="E39" s="52" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F39" s="52" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="13"/>
       <c r="B40" s="42"/>
       <c r="C40" s="42"/>
-      <c r="D40" s="54">
-        <v>8.0</v>
+      <c r="D40" s="51">
+        <v>7.0</v>
       </c>
       <c r="E40" s="52" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F40" s="52" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41">
@@ -3900,27 +3881,27 @@
       <c r="B41" s="42"/>
       <c r="C41" s="42"/>
       <c r="D41" s="54">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="E41" s="52" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F41" s="52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="13"/>
       <c r="B42" s="42"/>
       <c r="C42" s="42"/>
-      <c r="D42" s="55">
-        <v>10.0</v>
+      <c r="D42" s="54">
+        <v>9.0</v>
       </c>
       <c r="E42" s="52" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F42" s="52" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43">
@@ -3928,90 +3909,92 @@
       <c r="B43" s="42"/>
       <c r="C43" s="42"/>
       <c r="D43" s="55">
+        <v>10.0</v>
+      </c>
+      <c r="E43" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="F43" s="52" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="13"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="55">
         <v>11.0</v>
       </c>
-      <c r="E43" s="52" t="s">
+      <c r="E44" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="F43" s="52" t="s">
+      <c r="F44" s="52" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="15"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="55">
+    <row r="45">
+      <c r="A45" s="15"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="55">
         <v>12.0</v>
       </c>
-      <c r="E44" s="52" t="s">
+      <c r="E45" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="F44" s="52" t="s">
+      <c r="F45" s="52" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="46" t="s">
+    <row r="46">
+      <c r="A46" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B45" s="47" t="s">
+      <c r="B46" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C45" s="47" t="s">
+      <c r="C46" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D45" s="48" t="s">
+      <c r="D46" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="E45" s="48" t="s">
+      <c r="E46" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="F45" s="48" t="s">
+      <c r="F46" s="48" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="56" t="s">
+    <row r="47">
+      <c r="A47" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="B46" s="57" t="s">
+      <c r="B47" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="C46" s="57" t="s">
+      <c r="C47" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="D46" s="58">
+      <c r="D47" s="58">
         <v>1.0</v>
       </c>
-      <c r="E46" s="59" t="s">
+      <c r="E47" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="F46" s="60" t="s">
+      <c r="F47" s="60" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="13"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="58">
-        <v>2.0</v>
-      </c>
-      <c r="E47" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="F47" s="42"/>
     </row>
     <row r="48">
       <c r="A48" s="13"/>
       <c r="B48" s="42"/>
       <c r="C48" s="42"/>
       <c r="D48" s="58">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E48" s="59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F48" s="42"/>
     </row>
@@ -4020,10 +4003,10 @@
       <c r="B49" s="42"/>
       <c r="C49" s="42"/>
       <c r="D49" s="58">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E49" s="59" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F49" s="42"/>
     </row>
@@ -4032,202 +4015,202 @@
       <c r="B50" s="42"/>
       <c r="C50" s="42"/>
       <c r="D50" s="58">
+        <v>4.0</v>
+      </c>
+      <c r="E50" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="F50" s="42"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="13"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="58">
         <v>5.0</v>
       </c>
-      <c r="E50" s="59" t="s">
+      <c r="E51" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="F50" s="42"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="15"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="58">
+      <c r="F51" s="42"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="15"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="58">
         <v>6.0</v>
       </c>
-      <c r="E51" s="59" t="s">
+      <c r="E52" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="F51" s="45"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="46" t="s">
+      <c r="F52" s="45"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B52" s="47" t="s">
+      <c r="B53" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="47" t="s">
+      <c r="C53" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D52" s="48" t="s">
+      <c r="D53" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="E52" s="48" t="s">
+      <c r="E53" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="F52" s="48" t="s">
+      <c r="F53" s="48" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="56" t="s">
+    <row r="54">
+      <c r="A54" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="B53" s="57" t="s">
+      <c r="B54" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="C53" s="57" t="s">
+      <c r="C54" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="D53" s="58">
+      <c r="D54" s="58">
         <v>1.0</v>
       </c>
-      <c r="E53" s="59" t="s">
+      <c r="E54" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="F53" s="60" t="s">
+      <c r="F54" s="60" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="15"/>
-      <c r="B54" s="45"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="58">
+    <row r="55">
+      <c r="A55" s="15"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="58">
         <v>2.0</v>
       </c>
-      <c r="E54" s="59" t="s">
+      <c r="E55" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="F54" s="45"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="46" t="s">
+      <c r="F55" s="45"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B55" s="47" t="s">
+      <c r="B56" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C55" s="47" t="s">
+      <c r="C56" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D55" s="48" t="s">
+      <c r="D56" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="E55" s="48" t="s">
+      <c r="E56" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="F55" s="48" t="s">
+      <c r="F56" s="48" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="56" t="s">
+    <row r="57">
+      <c r="A57" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="B56" s="57" t="s">
+      <c r="B57" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="C56" s="57" t="s">
+      <c r="C57" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="D56" s="58">
+      <c r="D57" s="58">
         <v>1.0</v>
       </c>
-      <c r="E56" s="59" t="s">
+      <c r="E57" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="F56" s="61" t="s">
+      <c r="F57" s="61" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="13"/>
-      <c r="B57" s="42"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="58">
+    <row r="58">
+      <c r="A58" s="13"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="58">
         <v>2.0</v>
       </c>
-      <c r="E57" s="59" t="s">
+      <c r="E58" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="F57" s="42"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="15"/>
-      <c r="B58" s="45"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="62">
+      <c r="F58" s="42"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="15"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="62">
         <v>3.0</v>
       </c>
-      <c r="E58" s="59" t="s">
+      <c r="E59" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="F58" s="45"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="46" t="s">
+      <c r="F59" s="45"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B59" s="47" t="s">
+      <c r="B60" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C59" s="47" t="s">
+      <c r="C60" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D59" s="48" t="s">
+      <c r="D60" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="E59" s="48" t="s">
+      <c r="E60" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="F59" s="48" t="s">
+      <c r="F60" s="48" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="56" t="s">
+    <row r="61">
+      <c r="A61" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="B60" s="57" t="s">
+      <c r="B61" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="C60" s="57" t="s">
+      <c r="C61" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="D60" s="58">
+      <c r="D61" s="58">
         <v>1.0</v>
       </c>
-      <c r="E60" s="59" t="s">
+      <c r="E61" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="F60" s="60" t="s">
+      <c r="F61" s="60" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="13"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="58">
-        <v>2.0</v>
-      </c>
-      <c r="E61" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="F61" s="42"/>
     </row>
     <row r="62">
       <c r="A62" s="13"/>
       <c r="B62" s="42"/>
       <c r="C62" s="42"/>
       <c r="D62" s="58">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E62" s="59" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F62" s="42"/>
     </row>
@@ -4236,86 +4219,86 @@
       <c r="B63" s="42"/>
       <c r="C63" s="42"/>
       <c r="D63" s="58">
+        <v>3.0</v>
+      </c>
+      <c r="E63" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="F63" s="42"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="13"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="58">
         <v>4.0</v>
       </c>
-      <c r="E63" s="59" t="s">
+      <c r="E64" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="F63" s="42"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="15"/>
-      <c r="B64" s="45"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="58">
+      <c r="F64" s="42"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="15"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="58">
         <v>5.0</v>
       </c>
-      <c r="E64" s="59" t="s">
+      <c r="E65" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="F64" s="45"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="63" t="s">
+      <c r="F65" s="45"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="B65" s="47" t="s">
+      <c r="B66" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C65" s="47" t="s">
+      <c r="C66" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D65" s="48" t="s">
+      <c r="D66" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="E65" s="48" t="s">
+      <c r="E66" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="F65" s="48" t="s">
+      <c r="F66" s="48" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="56" t="s">
+    <row r="67">
+      <c r="A67" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="B66" s="57" t="s">
+      <c r="B67" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="C66" s="57" t="s">
+      <c r="C67" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="D66" s="58">
+      <c r="D67" s="58">
         <v>1.0</v>
       </c>
-      <c r="E66" s="59" t="s">
+      <c r="E67" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="F66" s="60" t="s">
+      <c r="F67" s="60" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="13"/>
-      <c r="B67" s="42"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="58">
-        <v>2.0</v>
-      </c>
-      <c r="E67" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="F67" s="42"/>
     </row>
     <row r="68">
       <c r="A68" s="13"/>
       <c r="B68" s="42"/>
       <c r="C68" s="42"/>
       <c r="D68" s="58">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E68" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F68" s="42"/>
     </row>
@@ -4324,86 +4307,86 @@
       <c r="B69" s="42"/>
       <c r="C69" s="42"/>
       <c r="D69" s="58">
+        <v>3.0</v>
+      </c>
+      <c r="E69" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="F69" s="42"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="13"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="58">
         <v>4.0</v>
       </c>
-      <c r="E69" s="59" t="s">
+      <c r="E70" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="F69" s="42"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="15"/>
-      <c r="B70" s="45"/>
-      <c r="C70" s="45"/>
-      <c r="D70" s="58">
+      <c r="F70" s="42"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="15"/>
+      <c r="B71" s="45"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="58">
         <v>5.0</v>
       </c>
-      <c r="E70" s="59" t="s">
+      <c r="E71" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="F70" s="45"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="46" t="s">
+      <c r="F71" s="45"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B71" s="47" t="s">
+      <c r="B72" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C71" s="47" t="s">
+      <c r="C72" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D71" s="48" t="s">
+      <c r="D72" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="E71" s="48" t="s">
+      <c r="E72" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="F71" s="48" t="s">
+      <c r="F72" s="48" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="56" t="s">
+    <row r="73">
+      <c r="A73" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="B72" s="57" t="s">
+      <c r="B73" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="C72" s="57" t="s">
+      <c r="C73" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="D72" s="58">
+      <c r="D73" s="58">
         <v>1.0</v>
       </c>
-      <c r="E72" s="59" t="s">
+      <c r="E73" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="F72" s="60" t="s">
+      <c r="F73" s="60" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="13"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="58">
-        <v>2.0</v>
-      </c>
-      <c r="E73" s="59" t="s">
-        <v>162</v>
-      </c>
-      <c r="F73" s="42"/>
     </row>
     <row r="74">
       <c r="A74" s="13"/>
       <c r="B74" s="42"/>
       <c r="C74" s="42"/>
       <c r="D74" s="58">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E74" s="59" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F74" s="42"/>
     </row>
@@ -4412,746 +4395,746 @@
       <c r="B75" s="42"/>
       <c r="C75" s="42"/>
       <c r="D75" s="58">
+        <v>3.0</v>
+      </c>
+      <c r="E75" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="F75" s="42"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="13"/>
+      <c r="B76" s="42"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="58">
         <v>4.0</v>
       </c>
-      <c r="E75" s="59" t="s">
+      <c r="E76" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="F75" s="42"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="15"/>
-      <c r="B76" s="45"/>
-      <c r="C76" s="45"/>
-      <c r="D76" s="58">
+      <c r="F76" s="42"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="15"/>
+      <c r="B77" s="45"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="58">
         <v>5.0</v>
       </c>
-      <c r="E76" s="59" t="s">
+      <c r="E77" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="F76" s="45"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="46" t="s">
+      <c r="F77" s="45"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B77" s="47" t="s">
+      <c r="B78" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C77" s="47" t="s">
+      <c r="C78" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D77" s="48" t="s">
+      <c r="D78" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="E77" s="48" t="s">
+      <c r="E78" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="F77" s="48" t="s">
+      <c r="F78" s="48" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="56" t="s">
+    <row r="79">
+      <c r="A79" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="B78" s="57" t="s">
+      <c r="B79" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="C78" s="57" t="s">
+      <c r="C79" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="D78" s="58">
+      <c r="D79" s="58">
         <v>1.0</v>
       </c>
-      <c r="E78" s="59" t="s">
+      <c r="E79" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="F78" s="60" t="s">
+      <c r="F79" s="60" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="13"/>
-      <c r="B79" s="42"/>
-      <c r="C79" s="42"/>
-      <c r="D79" s="58">
+    <row r="80">
+      <c r="A80" s="13"/>
+      <c r="B80" s="42"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="58">
         <v>2.0</v>
       </c>
-      <c r="E79" s="59" t="s">
+      <c r="E80" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="F79" s="42"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="15"/>
-      <c r="B80" s="45"/>
-      <c r="C80" s="45"/>
-      <c r="D80" s="58">
+      <c r="F80" s="42"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="15"/>
+      <c r="B81" s="45"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="58">
         <v>3.0</v>
       </c>
-      <c r="E80" s="59" t="s">
+      <c r="E81" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="F80" s="45"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="46" t="s">
+      <c r="F81" s="45"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B81" s="47" t="s">
+      <c r="B82" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C81" s="47" t="s">
+      <c r="C82" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D81" s="48" t="s">
+      <c r="D82" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="E81" s="48" t="s">
+      <c r="E82" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="F81" s="48" t="s">
+      <c r="F82" s="48" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="56" t="s">
+    <row r="83">
+      <c r="A83" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="B82" s="57" t="s">
+      <c r="B83" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="C82" s="57" t="s">
+      <c r="C83" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="D82" s="58">
+      <c r="D83" s="58">
         <v>1.0</v>
       </c>
-      <c r="E82" s="59" t="s">
+      <c r="E83" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="F82" s="60" t="s">
+      <c r="F83" s="60" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="15"/>
-      <c r="B83" s="45"/>
-      <c r="C83" s="45"/>
-      <c r="D83" s="58">
+    <row r="84">
+      <c r="A84" s="15"/>
+      <c r="B84" s="45"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="58">
         <v>2.0</v>
       </c>
-      <c r="E83" s="59" t="s">
+      <c r="E84" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="F83" s="45"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="46" t="s">
+      <c r="F84" s="45"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B84" s="47" t="s">
+      <c r="B85" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C84" s="47" t="s">
+      <c r="C85" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D84" s="48" t="s">
+      <c r="D85" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="E84" s="48" t="s">
+      <c r="E85" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="F84" s="48" t="s">
+      <c r="F85" s="48" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="56" t="s">
+    <row r="86">
+      <c r="A86" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="B85" s="57" t="s">
+      <c r="B86" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="C85" s="57" t="s">
+      <c r="C86" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="D85" s="58">
+      <c r="D86" s="58">
         <v>1.0</v>
       </c>
-      <c r="E85" s="59" t="s">
+      <c r="E86" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="F85" s="60" t="s">
+      <c r="F86" s="60" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="15"/>
-      <c r="B86" s="45"/>
-      <c r="C86" s="45"/>
-      <c r="D86" s="58">
+    <row r="87">
+      <c r="A87" s="15"/>
+      <c r="B87" s="45"/>
+      <c r="C87" s="45"/>
+      <c r="D87" s="58">
         <v>2.0</v>
       </c>
-      <c r="E86" s="59" t="s">
+      <c r="E87" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="F86" s="45"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="46" t="s">
+      <c r="F87" s="45"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B87" s="47" t="s">
+      <c r="B88" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C87" s="47" t="s">
+      <c r="C88" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D87" s="48" t="s">
+      <c r="D88" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="E87" s="48" t="s">
+      <c r="E88" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="F87" s="48" t="s">
+      <c r="F88" s="48" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="56" t="s">
+    <row r="89">
+      <c r="A89" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="B88" s="57" t="s">
+      <c r="B89" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="C88" s="57" t="s">
+      <c r="C89" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="D88" s="58">
+      <c r="D89" s="58">
         <v>1.0</v>
       </c>
-      <c r="E88" s="59" t="s">
+      <c r="E89" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="F88" s="60" t="s">
+      <c r="F89" s="60" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="15"/>
-      <c r="B89" s="45"/>
-      <c r="C89" s="45"/>
-      <c r="D89" s="58">
+    <row r="90">
+      <c r="A90" s="15"/>
+      <c r="B90" s="45"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="58">
         <v>2.0</v>
       </c>
-      <c r="E89" s="59" t="s">
+      <c r="E90" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="F89" s="45"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="46" t="s">
+      <c r="F90" s="45"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B90" s="47" t="s">
+      <c r="B91" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C90" s="47" t="s">
+      <c r="C91" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D90" s="48" t="s">
+      <c r="D91" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="E90" s="48" t="s">
+      <c r="E91" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="F90" s="48" t="s">
+      <c r="F91" s="48" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="56" t="s">
+    <row r="92">
+      <c r="A92" s="56" t="s">
         <v>183</v>
       </c>
-      <c r="B91" s="57" t="s">
+      <c r="B92" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="C91" s="57" t="s">
+      <c r="C92" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="D91" s="58">
+      <c r="D92" s="58">
         <v>1.0</v>
       </c>
-      <c r="E91" s="59" t="s">
+      <c r="E92" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="F91" s="60" t="s">
+      <c r="F92" s="60" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="15"/>
-      <c r="B92" s="45"/>
-      <c r="C92" s="45"/>
-      <c r="D92" s="58">
+    <row r="93">
+      <c r="A93" s="15"/>
+      <c r="B93" s="45"/>
+      <c r="C93" s="45"/>
+      <c r="D93" s="58">
         <v>2.0</v>
       </c>
-      <c r="E92" s="59" t="s">
+      <c r="E93" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="F92" s="45"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="46" t="s">
+      <c r="F93" s="45"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B93" s="47" t="s">
+      <c r="B94" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C93" s="47" t="s">
+      <c r="C94" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D93" s="48" t="s">
+      <c r="D94" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="E93" s="48" t="s">
+      <c r="E94" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="F93" s="48" t="s">
+      <c r="F94" s="48" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="56" t="s">
+    <row r="95">
+      <c r="A95" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="B94" s="57" t="s">
+      <c r="B95" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="C94" s="57" t="s">
+      <c r="C95" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="D94" s="58">
+      <c r="D95" s="58">
         <v>1.0</v>
       </c>
-      <c r="E94" s="59" t="s">
+      <c r="E95" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="F94" s="61" t="s">
+      <c r="F95" s="61" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="15"/>
-      <c r="B95" s="45"/>
-      <c r="C95" s="45"/>
-      <c r="D95" s="58">
+    <row r="96">
+      <c r="A96" s="15"/>
+      <c r="B96" s="45"/>
+      <c r="C96" s="45"/>
+      <c r="D96" s="58">
         <v>2.0</v>
       </c>
-      <c r="E95" s="59" t="s">
+      <c r="E96" s="59" t="s">
         <v>191</v>
       </c>
-      <c r="F95" s="45"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="46" t="s">
+      <c r="F96" s="45"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B96" s="47" t="s">
+      <c r="B97" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C96" s="47" t="s">
+      <c r="C97" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D96" s="48" t="s">
+      <c r="D97" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="E96" s="48" t="s">
+      <c r="E97" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="F96" s="48" t="s">
+      <c r="F97" s="48" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="56" t="s">
+    <row r="98">
+      <c r="A98" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="B97" s="57" t="s">
+      <c r="B98" s="57" t="s">
         <v>193</v>
       </c>
-      <c r="C97" s="57" t="s">
+      <c r="C98" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="D97" s="58">
+      <c r="D98" s="58">
         <v>1.0</v>
       </c>
-      <c r="E97" s="59" t="s">
+      <c r="E98" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="F97" s="61" t="s">
+      <c r="F98" s="61" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="15"/>
-      <c r="B98" s="45"/>
-      <c r="C98" s="45"/>
-      <c r="D98" s="58">
+    <row r="99">
+      <c r="A99" s="15"/>
+      <c r="B99" s="45"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="58">
         <v>2.0</v>
       </c>
-      <c r="E98" s="59" t="s">
+      <c r="E99" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="F98" s="45"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="46" t="s">
+      <c r="F99" s="45"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B99" s="47" t="s">
+      <c r="B100" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C99" s="47" t="s">
+      <c r="C100" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D99" s="48" t="s">
+      <c r="D100" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="E99" s="48" t="s">
+      <c r="E100" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="F99" s="48" t="s">
+      <c r="F100" s="48" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="56" t="s">
+    <row r="101">
+      <c r="A101" s="56" t="s">
         <v>196</v>
       </c>
-      <c r="B100" s="57" t="s">
+      <c r="B101" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="C100" s="57" t="s">
+      <c r="C101" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="D100" s="58">
+      <c r="D101" s="58">
         <v>1.0</v>
       </c>
-      <c r="E100" s="59" t="s">
+      <c r="E101" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="F100" s="61" t="s">
+      <c r="F101" s="61" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="15"/>
-      <c r="B101" s="45"/>
-      <c r="C101" s="45"/>
-      <c r="D101" s="58">
+    <row r="102">
+      <c r="A102" s="15"/>
+      <c r="B102" s="45"/>
+      <c r="C102" s="45"/>
+      <c r="D102" s="58">
         <v>2.0</v>
       </c>
-      <c r="E101" s="59" t="s">
+      <c r="E102" s="59" t="s">
         <v>199</v>
       </c>
-      <c r="F101" s="45"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="46" t="s">
+      <c r="F102" s="45"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B102" s="47" t="s">
+      <c r="B103" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C102" s="47" t="s">
+      <c r="C103" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D102" s="48" t="s">
+      <c r="D103" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="E102" s="48" t="s">
+      <c r="E103" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="F102" s="48" t="s">
+      <c r="F103" s="48" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="56" t="s">
+    <row r="104">
+      <c r="A104" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="B103" s="57" t="s">
+      <c r="B104" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="C103" s="57" t="s">
+      <c r="C104" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="D103" s="58">
+      <c r="D104" s="58">
         <v>1.0</v>
       </c>
-      <c r="E103" s="59" t="s">
+      <c r="E104" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="F103" s="61" t="s">
+      <c r="F104" s="61" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="15"/>
-      <c r="B104" s="45"/>
-      <c r="C104" s="45"/>
-      <c r="D104" s="58">
+    <row r="105">
+      <c r="A105" s="15"/>
+      <c r="B105" s="45"/>
+      <c r="C105" s="45"/>
+      <c r="D105" s="58">
         <v>2.0</v>
       </c>
-      <c r="E104" s="59" t="s">
+      <c r="E105" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="F104" s="45"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="46" t="s">
+      <c r="F105" s="45"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B105" s="47" t="s">
+      <c r="B106" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C105" s="47" t="s">
+      <c r="C106" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D105" s="48" t="s">
+      <c r="D106" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="E105" s="48" t="s">
+      <c r="E106" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="F105" s="48" t="s">
+      <c r="F106" s="48" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="56" t="s">
+    <row r="107">
+      <c r="A107" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="B106" s="57" t="s">
+      <c r="B107" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="C106" s="57" t="s">
+      <c r="C107" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="D106" s="58">
+      <c r="D107" s="58">
         <v>1.0</v>
       </c>
-      <c r="E106" s="59" t="s">
+      <c r="E107" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="F106" s="61" t="s">
+      <c r="F107" s="61" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="15"/>
-      <c r="B107" s="45"/>
-      <c r="C107" s="45"/>
-      <c r="D107" s="58">
+    <row r="108">
+      <c r="A108" s="15"/>
+      <c r="B108" s="45"/>
+      <c r="C108" s="45"/>
+      <c r="D108" s="58">
         <v>2.0</v>
       </c>
-      <c r="E107" s="59" t="s">
+      <c r="E108" s="59" t="s">
         <v>207</v>
       </c>
-      <c r="F107" s="45"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="46" t="s">
+      <c r="F108" s="45"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B108" s="47" t="s">
+      <c r="B109" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C108" s="47" t="s">
+      <c r="C109" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D108" s="48" t="s">
+      <c r="D109" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="E108" s="48" t="s">
+      <c r="E109" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="F108" s="48" t="s">
+      <c r="F109" s="48" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="56" t="s">
+    <row r="110">
+      <c r="A110" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="B109" s="57" t="s">
+      <c r="B110" s="57" t="s">
         <v>209</v>
       </c>
-      <c r="C109" s="57" t="s">
+      <c r="C110" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="D109" s="58">
+      <c r="D110" s="58">
         <v>1.0</v>
       </c>
-      <c r="E109" s="59" t="s">
+      <c r="E110" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="F109" s="60" t="s">
+      <c r="F110" s="60" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="13"/>
-      <c r="B110" s="42"/>
-      <c r="C110" s="42"/>
-      <c r="D110" s="58">
+    <row r="111">
+      <c r="A111" s="13"/>
+      <c r="B111" s="42"/>
+      <c r="C111" s="42"/>
+      <c r="D111" s="58">
         <v>2.0</v>
       </c>
-      <c r="E110" s="59" t="s">
+      <c r="E111" s="59" t="s">
         <v>211</v>
       </c>
-      <c r="F110" s="42"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="15"/>
-      <c r="B111" s="45"/>
-      <c r="C111" s="45"/>
-      <c r="D111" s="64">
+      <c r="F111" s="42"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="15"/>
+      <c r="B112" s="45"/>
+      <c r="C112" s="45"/>
+      <c r="D112" s="64">
         <v>3.0</v>
       </c>
-      <c r="E111" s="59" t="s">
+      <c r="E112" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="F111" s="45"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="46" t="s">
+      <c r="F112" s="45"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B112" s="47" t="s">
+      <c r="B113" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C112" s="47" t="s">
+      <c r="C113" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D112" s="48" t="s">
+      <c r="D113" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="E112" s="48" t="s">
+      <c r="E113" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="F112" s="48" t="s">
+      <c r="F113" s="48" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="56" t="s">
+    <row r="114">
+      <c r="A114" s="56" t="s">
         <v>213</v>
       </c>
-      <c r="B113" s="57" t="s">
+      <c r="B114" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="C113" s="57" t="s">
+      <c r="C114" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="D113" s="58">
+      <c r="D114" s="58">
         <v>1.0</v>
       </c>
-      <c r="E113" s="59" t="s">
+      <c r="E114" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="F113" s="60" t="s">
+      <c r="F114" s="60" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="13"/>
-      <c r="B114" s="42"/>
-      <c r="C114" s="42"/>
-      <c r="D114" s="58">
+    <row r="115">
+      <c r="A115" s="13"/>
+      <c r="B115" s="42"/>
+      <c r="C115" s="42"/>
+      <c r="D115" s="58">
         <v>2.0</v>
       </c>
-      <c r="E114" s="59" t="s">
+      <c r="E115" s="59" t="s">
         <v>211</v>
       </c>
-      <c r="F114" s="42"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="15"/>
-      <c r="B115" s="45"/>
-      <c r="C115" s="45"/>
-      <c r="D115" s="64">
+      <c r="F115" s="42"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="15"/>
+      <c r="B116" s="45"/>
+      <c r="C116" s="45"/>
+      <c r="D116" s="64">
         <v>3.0</v>
       </c>
-      <c r="E115" s="65" t="s">
+      <c r="E116" s="65" t="s">
         <v>216</v>
       </c>
-      <c r="F115" s="45"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="46" t="s">
+      <c r="F116" s="45"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B116" s="47" t="s">
+      <c r="B117" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C116" s="47" t="s">
+      <c r="C117" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D116" s="48" t="s">
+      <c r="D117" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="E116" s="48" t="s">
+      <c r="E117" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="F116" s="48" t="s">
+      <c r="F117" s="48" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="56" t="s">
+    <row r="118">
+      <c r="A118" s="56" t="s">
         <v>217</v>
       </c>
-      <c r="B117" s="57" t="s">
+      <c r="B118" s="57" t="s">
         <v>218</v>
       </c>
-      <c r="C117" s="57" t="s">
+      <c r="C118" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="D117" s="58">
+      <c r="D118" s="58">
         <v>1.0</v>
       </c>
-      <c r="E117" s="59" t="s">
+      <c r="E118" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="F117" s="60" t="s">
+      <c r="F118" s="60" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="13"/>
-      <c r="B118" s="42"/>
-      <c r="C118" s="42"/>
-      <c r="D118" s="58">
-        <v>2.0</v>
-      </c>
-      <c r="E118" s="59" t="s">
-        <v>211</v>
-      </c>
-      <c r="F118" s="42"/>
     </row>
     <row r="119">
       <c r="A119" s="13"/>
       <c r="B119" s="42"/>
       <c r="C119" s="42"/>
       <c r="D119" s="58">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E119" s="59" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="F119" s="42"/>
     </row>
@@ -5160,62 +5143,68 @@
       <c r="B120" s="42"/>
       <c r="C120" s="42"/>
       <c r="D120" s="58">
+        <v>3.0</v>
+      </c>
+      <c r="E120" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="F120" s="42"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="13"/>
+      <c r="B121" s="42"/>
+      <c r="C121" s="42"/>
+      <c r="D121" s="58">
         <v>4.0</v>
       </c>
-      <c r="E120" s="59" t="s">
+      <c r="E121" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="F120" s="42"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="15"/>
-      <c r="B121" s="45"/>
-      <c r="C121" s="45"/>
-      <c r="D121" s="58">
+      <c r="F121" s="42"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="15"/>
+      <c r="B122" s="45"/>
+      <c r="C122" s="45"/>
+      <c r="D122" s="58">
         <v>5.0</v>
       </c>
-      <c r="E121" s="59" t="s">
+      <c r="E122" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="F121" s="45"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="46" t="s">
+      <c r="F122" s="45"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B122" s="47" t="s">
+      <c r="B123" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C122" s="47" t="s">
+      <c r="C123" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D122" s="48" t="s">
+      <c r="D123" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="E122" s="48" t="s">
+      <c r="E123" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="F122" s="48" t="s">
+      <c r="F123" s="48" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="56" t="s">
+    <row r="124">
+      <c r="A124" s="56" t="s">
         <v>223</v>
       </c>
-      <c r="B123" s="57"/>
-      <c r="C123" s="57"/>
-      <c r="D123" s="58"/>
-      <c r="E123" s="59"/>
-      <c r="F123" s="60"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="13"/>
-      <c r="B124" s="42"/>
-      <c r="C124" s="42"/>
+      <c r="B124" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="C124" s="57"/>
       <c r="D124" s="58"/>
       <c r="E124" s="59"/>
-      <c r="F124" s="42"/>
+      <c r="F124" s="60"/>
     </row>
     <row r="125">
       <c r="A125" s="13"/>
@@ -5234,50 +5223,50 @@
       <c r="F126" s="42"/>
     </row>
     <row r="127">
-      <c r="A127" s="15"/>
-      <c r="B127" s="45"/>
-      <c r="C127" s="45"/>
+      <c r="A127" s="13"/>
+      <c r="B127" s="42"/>
+      <c r="C127" s="42"/>
       <c r="D127" s="58"/>
       <c r="E127" s="59"/>
-      <c r="F127" s="45"/>
+      <c r="F127" s="42"/>
     </row>
     <row r="128">
-      <c r="A128" s="46" t="s">
+      <c r="A128" s="15"/>
+      <c r="B128" s="45"/>
+      <c r="C128" s="45"/>
+      <c r="D128" s="58"/>
+      <c r="E128" s="59"/>
+      <c r="F128" s="45"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B128" s="47" t="s">
+      <c r="B129" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C128" s="47" t="s">
+      <c r="C129" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D128" s="48" t="s">
+      <c r="D129" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="E128" s="48" t="s">
+      <c r="E129" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="F128" s="48" t="s">
+      <c r="F129" s="48" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="56" t="s">
+    <row r="130">
+      <c r="A130" s="56" t="s">
         <v>223</v>
       </c>
-      <c r="B129" s="57"/>
-      <c r="C129" s="57"/>
-      <c r="D129" s="58"/>
-      <c r="E129" s="59"/>
-      <c r="F129" s="60"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="13"/>
-      <c r="B130" s="42"/>
-      <c r="C130" s="42"/>
+      <c r="B130" s="57"/>
+      <c r="C130" s="57"/>
       <c r="D130" s="58"/>
       <c r="E130" s="59"/>
-      <c r="F130" s="42"/>
+      <c r="F130" s="60"/>
     </row>
     <row r="131">
       <c r="A131" s="13"/>
@@ -5296,50 +5285,50 @@
       <c r="F132" s="42"/>
     </row>
     <row r="133">
-      <c r="A133" s="15"/>
-      <c r="B133" s="45"/>
-      <c r="C133" s="45"/>
+      <c r="A133" s="13"/>
+      <c r="B133" s="42"/>
+      <c r="C133" s="42"/>
       <c r="D133" s="58"/>
       <c r="E133" s="59"/>
-      <c r="F133" s="45"/>
+      <c r="F133" s="42"/>
     </row>
     <row r="134">
-      <c r="A134" s="46" t="s">
+      <c r="A134" s="15"/>
+      <c r="B134" s="45"/>
+      <c r="C134" s="45"/>
+      <c r="D134" s="58"/>
+      <c r="E134" s="59"/>
+      <c r="F134" s="45"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B134" s="47" t="s">
+      <c r="B135" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C134" s="47" t="s">
+      <c r="C135" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D134" s="48" t="s">
+      <c r="D135" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="E134" s="48" t="s">
+      <c r="E135" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="F134" s="48" t="s">
+      <c r="F135" s="48" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="56" t="s">
-        <v>224</v>
-      </c>
-      <c r="B135" s="57"/>
-      <c r="C135" s="57"/>
-      <c r="D135" s="58"/>
-      <c r="E135" s="59"/>
-      <c r="F135" s="60"/>
-    </row>
     <row r="136">
-      <c r="A136" s="13"/>
-      <c r="B136" s="42"/>
-      <c r="C136" s="42"/>
+      <c r="A136" s="56" t="s">
+        <v>225</v>
+      </c>
+      <c r="B136" s="57"/>
+      <c r="C136" s="57"/>
       <c r="D136" s="58"/>
       <c r="E136" s="59"/>
-      <c r="F136" s="42"/>
+      <c r="F136" s="60"/>
     </row>
     <row r="137">
       <c r="A137" s="13"/>
@@ -5358,194 +5347,202 @@
       <c r="F138" s="42"/>
     </row>
     <row r="139">
-      <c r="A139" s="15"/>
-      <c r="B139" s="45"/>
-      <c r="C139" s="45"/>
+      <c r="A139" s="13"/>
+      <c r="B139" s="42"/>
+      <c r="C139" s="42"/>
       <c r="D139" s="58"/>
       <c r="E139" s="59"/>
-      <c r="F139" s="45"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="66" t="s">
-        <v>225</v>
-      </c>
-      <c r="B144" s="66" t="s">
+      <c r="F139" s="42"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="15"/>
+      <c r="B140" s="45"/>
+      <c r="C140" s="45"/>
+      <c r="D140" s="58"/>
+      <c r="E140" s="59"/>
+      <c r="F140" s="45"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="66" t="s">
         <v>226</v>
       </c>
-      <c r="C144" s="66" t="s">
+      <c r="B145" s="66" t="s">
         <v>227</v>
       </c>
-      <c r="D144" s="66" t="s">
+      <c r="C145" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="E144" s="66" t="s">
+      <c r="D145" s="66" t="s">
+        <v>229</v>
+      </c>
+      <c r="E145" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="F144" s="66" t="s">
-        <v>229</v>
-      </c>
-      <c r="G144" s="66" t="s">
+      <c r="F145" s="66" t="s">
         <v>230</v>
       </c>
-      <c r="H144" s="66" t="s">
+      <c r="G145" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="I144" s="66" t="s">
+      <c r="H145" s="66" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="2" t="s">
+      <c r="I145" s="66" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B145" s="67" t="s">
-        <v>233</v>
-      </c>
-      <c r="C145" s="67" t="s">
+      <c r="B146" s="67" t="s">
         <v>234</v>
       </c>
-      <c r="D145" s="66" t="s">
+      <c r="C146" s="67" t="s">
         <v>235</v>
       </c>
-      <c r="E145" s="2" t="s">
+      <c r="D146" s="66" t="s">
+        <v>236</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F145" s="66" t="s">
+      <c r="F146" s="66" t="s">
+        <v>237</v>
+      </c>
+      <c r="G146" s="66" t="s">
+        <v>238</v>
+      </c>
+      <c r="H146" s="66" t="s">
+        <v>239</v>
+      </c>
+      <c r="I146" s="66" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="66" t="s">
+        <v>241</v>
+      </c>
+      <c r="B147" s="66" t="s">
+        <v>242</v>
+      </c>
+      <c r="C147" s="66" t="s">
+        <v>243</v>
+      </c>
+      <c r="D147" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="G145" s="66" t="s">
+      <c r="E147" s="66" t="s">
+        <v>244</v>
+      </c>
+      <c r="F147" s="66" t="s">
         <v>237</v>
       </c>
-      <c r="H145" s="66" t="s">
-        <v>238</v>
-      </c>
-      <c r="I145" s="66" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="66" t="s">
+      <c r="G147" s="66" t="s">
+        <v>245</v>
+      </c>
+      <c r="H147" s="66" t="s">
+        <v>246</v>
+      </c>
+      <c r="I147" s="66" t="s">
         <v>240</v>
-      </c>
-      <c r="B146" s="66" t="s">
-        <v>241</v>
-      </c>
-      <c r="C146" s="66" t="s">
-        <v>242</v>
-      </c>
-      <c r="D146" s="66" t="s">
-        <v>235</v>
-      </c>
-      <c r="E146" s="66" t="s">
-        <v>243</v>
-      </c>
-      <c r="F146" s="66" t="s">
-        <v>236</v>
-      </c>
-      <c r="G146" s="66" t="s">
-        <v>244</v>
-      </c>
-      <c r="H146" s="66" t="s">
-        <v>245</v>
-      </c>
-      <c r="I146" s="66" t="s">
-        <v>239</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="F109:F111"/>
-    <mergeCell ref="F113:F115"/>
-    <mergeCell ref="F117:F121"/>
-    <mergeCell ref="F123:F127"/>
-    <mergeCell ref="F129:F133"/>
-    <mergeCell ref="F135:F139"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="F56:F58"/>
-    <mergeCell ref="F60:F64"/>
-    <mergeCell ref="F66:F70"/>
-    <mergeCell ref="F72:F76"/>
-    <mergeCell ref="F78:F80"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="C113:C115"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="A109:A111"/>
-    <mergeCell ref="B109:B111"/>
-    <mergeCell ref="C109:C111"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="B129:B133"/>
-    <mergeCell ref="C129:C133"/>
-    <mergeCell ref="A135:A139"/>
-    <mergeCell ref="B135:B139"/>
-    <mergeCell ref="C135:C139"/>
-    <mergeCell ref="A117:A121"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="C117:C121"/>
-    <mergeCell ref="A123:A127"/>
-    <mergeCell ref="B123:B127"/>
-    <mergeCell ref="C123:C127"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="A29:F31"/>
-    <mergeCell ref="A33:A44"/>
-    <mergeCell ref="B33:B44"/>
-    <mergeCell ref="C33:C44"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="C46:C51"/>
-    <mergeCell ref="F46:F51"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="C72:C76"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="C60:C64"/>
-    <mergeCell ref="A66:A70"/>
-    <mergeCell ref="B66:B70"/>
-    <mergeCell ref="C66:C70"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="F110:F112"/>
+    <mergeCell ref="F114:F116"/>
+    <mergeCell ref="F118:F122"/>
+    <mergeCell ref="F124:F128"/>
+    <mergeCell ref="F130:F134"/>
+    <mergeCell ref="F136:F140"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="F61:F65"/>
+    <mergeCell ref="F67:F71"/>
+    <mergeCell ref="F73:F77"/>
+    <mergeCell ref="F79:F81"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="B130:B134"/>
+    <mergeCell ref="C130:C134"/>
+    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="B136:B140"/>
+    <mergeCell ref="C136:C140"/>
+    <mergeCell ref="A118:A122"/>
+    <mergeCell ref="B118:B122"/>
+    <mergeCell ref="C118:C122"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="B124:B128"/>
+    <mergeCell ref="C124:C128"/>
+    <mergeCell ref="A130:A134"/>
+    <mergeCell ref="A30:F32"/>
+    <mergeCell ref="A34:A45"/>
+    <mergeCell ref="B34:B45"/>
+    <mergeCell ref="C34:C45"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="C47:C52"/>
+    <mergeCell ref="F47:F52"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="C73:C77"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="C61:C65"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="C67:C71"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="F107:F108"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5586,10 +5583,10 @@
         <v>1.0</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D7" s="69" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E7" s="58">
         <v>1.0</v>
@@ -5708,31 +5705,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="72" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B1" s="73" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C1" s="74" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D1" s="73" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E1" s="73" t="s">
         <v>108</v>
       </c>
       <c r="F1" s="73" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G1" s="75" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H1" s="75" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I1" s="76" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J1" s="77"/>
       <c r="K1" s="77"/>
@@ -5757,28 +5754,28 @@
         <v>139</v>
       </c>
       <c r="B2" s="81" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C2" s="82" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D2" s="83" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E2" s="82" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F2" s="83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G2" s="84" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H2" s="81" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I2" s="83" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J2" s="85"/>
       <c r="K2" s="85"/>
@@ -5800,31 +5797,31 @@
     </row>
     <row r="3">
       <c r="A3" s="86" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B3" s="81" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C3" s="82" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D3" s="83" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E3" s="82" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F3" s="83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G3" s="84" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H3" s="81" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I3" s="83" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J3" s="85"/>
       <c r="K3" s="85"/>
@@ -5849,28 +5846,28 @@
         <v>144</v>
       </c>
       <c r="B4" s="81" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C4" s="82" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D4" s="83" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F4" s="83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G4" s="81" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H4" s="81" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I4" s="83" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J4" s="85"/>
       <c r="K4" s="85"/>
@@ -5895,28 +5892,28 @@
         <v>149</v>
       </c>
       <c r="B5" s="81" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C5" s="82" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D5" s="83" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E5" s="82" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F5" s="83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G5" s="81" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H5" s="81" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I5" s="83" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J5" s="85"/>
       <c r="K5" s="85"/>
@@ -5941,28 +5938,28 @@
         <v>155</v>
       </c>
       <c r="B6" s="81" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C6" s="82" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D6" s="83" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E6" s="82" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F6" s="83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G6" s="81" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H6" s="81" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I6" s="83" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J6" s="85"/>
       <c r="K6" s="85"/>
@@ -5984,31 +5981,31 @@
     </row>
     <row r="7">
       <c r="A7" s="87" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B7" s="81" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C7" s="82" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D7" s="83" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F7" s="83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G7" s="81" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H7" s="88" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I7" s="83" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J7" s="85"/>
       <c r="K7" s="85"/>
@@ -6033,28 +6030,28 @@
         <v>170</v>
       </c>
       <c r="B8" s="81" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C8" s="82" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D8" s="83" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E8" s="82" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F8" s="82" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G8" s="89" t="s">
         <v>171</v>
       </c>
       <c r="H8" s="90" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I8" s="91" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J8" s="85"/>
       <c r="K8" s="85"/>
@@ -6079,28 +6076,28 @@
         <v>175</v>
       </c>
       <c r="B9" s="81" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C9" s="82" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D9" s="83" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F9" s="82" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G9" s="89" t="s">
         <v>176</v>
       </c>
       <c r="H9" s="92" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I9" s="91" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J9" s="85"/>
       <c r="K9" s="85"/>
@@ -6125,28 +6122,28 @@
         <v>180</v>
       </c>
       <c r="B10" s="81" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C10" s="82" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D10" s="83" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E10" s="82" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F10" s="82" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G10" s="94" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H10" s="95" t="s">
         <v>182</v>
       </c>
       <c r="I10" s="91" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J10" s="85"/>
       <c r="K10" s="85"/>
@@ -6171,28 +6168,28 @@
         <v>184</v>
       </c>
       <c r="B11" s="81" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C11" s="82" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D11" s="83" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E11" s="82" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F11" s="82" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G11" s="94" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H11" s="95" t="s">
         <v>186</v>
       </c>
       <c r="I11" s="96" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J11" s="85"/>
       <c r="K11" s="85"/>
@@ -6217,28 +6214,28 @@
         <v>188</v>
       </c>
       <c r="B12" s="81" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C12" s="82" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D12" s="83" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E12" s="82" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F12" s="82" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G12" s="94" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H12" s="95" t="s">
         <v>190</v>
       </c>
       <c r="I12" s="96" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J12" s="85"/>
       <c r="K12" s="85"/>
@@ -6263,28 +6260,28 @@
         <v>193</v>
       </c>
       <c r="B13" s="81" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C13" s="82" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D13" s="83" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E13" s="82" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F13" s="82" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G13" s="94" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H13" s="95" t="s">
         <v>194</v>
       </c>
       <c r="I13" s="96" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J13" s="85"/>
       <c r="K13" s="85"/>
@@ -6309,28 +6306,28 @@
         <v>197</v>
       </c>
       <c r="B14" s="81" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C14" s="82" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D14" s="83" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E14" s="82" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F14" s="82" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G14" s="94" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H14" s="95" t="s">
         <v>198</v>
       </c>
       <c r="I14" s="96" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J14" s="85"/>
       <c r="K14" s="85"/>
@@ -6355,28 +6352,28 @@
         <v>201</v>
       </c>
       <c r="B15" s="81" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C15" s="82" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D15" s="83" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E15" s="82" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F15" s="82" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G15" s="94" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H15" s="95" t="s">
         <v>202</v>
       </c>
       <c r="I15" s="96" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J15" s="85"/>
       <c r="K15" s="85"/>
@@ -6401,28 +6398,28 @@
         <v>205</v>
       </c>
       <c r="B16" s="81" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C16" s="82" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D16" s="83" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F16" s="82" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G16" s="94" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H16" s="95" t="s">
         <v>206</v>
       </c>
       <c r="I16" s="96" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J16" s="85"/>
       <c r="K16" s="85"/>
@@ -6447,28 +6444,28 @@
         <v>209</v>
       </c>
       <c r="B17" s="81" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C17" s="82" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D17" s="83" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E17" s="82" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F17" s="82" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G17" s="94" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H17" s="95" t="s">
         <v>210</v>
       </c>
       <c r="I17" s="96" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J17" s="85"/>
       <c r="K17" s="85"/>
@@ -6493,28 +6490,28 @@
         <v>214</v>
       </c>
       <c r="B18" s="81" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C18" s="82" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D18" s="83" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E18" s="82" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F18" s="82" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G18" s="94" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H18" s="95" t="s">
         <v>215</v>
       </c>
       <c r="I18" s="96" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J18" s="85"/>
       <c r="K18" s="85"/>
@@ -6539,28 +6536,28 @@
         <v>218</v>
       </c>
       <c r="B19" s="81" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C19" s="82" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D19" s="83" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E19" s="82" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F19" s="82" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G19" s="94" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H19" s="83" t="s">
         <v>219</v>
       </c>
       <c r="I19" s="96" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J19" s="85"/>
       <c r="K19" s="85"/>
@@ -32469,91 +32466,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="114" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B1" s="114" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C1" s="114" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B6" s="1" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>292</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -32580,234 +32532,234 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="115" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B1" s="116" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C1" s="117" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D1" s="116" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E1" s="116" t="s">
         <v>108</v>
       </c>
       <c r="F1" s="116" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G1" s="116" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H1" s="116" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I1" s="116" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="118" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" s="118" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="118" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2" s="119" t="s">
         <v>296</v>
       </c>
-      <c r="B2" s="118" t="s">
+      <c r="E2" s="118" t="s">
         <v>297</v>
       </c>
-      <c r="C2" s="118" t="s">
+      <c r="F2" s="118" t="s">
+        <v>237</v>
+      </c>
+      <c r="G2" s="118" t="s">
         <v>298</v>
       </c>
-      <c r="D2" s="119" t="s">
+      <c r="H2" s="118" t="s">
         <v>299</v>
       </c>
-      <c r="E2" s="118" t="s">
-        <v>300</v>
-      </c>
-      <c r="F2" s="118" t="s">
-        <v>236</v>
-      </c>
-      <c r="G2" s="118" t="s">
-        <v>301</v>
-      </c>
-      <c r="H2" s="118" t="s">
-        <v>302</v>
-      </c>
       <c r="I2" s="120" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="118" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3" s="118" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" s="118" t="s">
+        <v>295</v>
+      </c>
+      <c r="D3" s="119" t="s">
+        <v>296</v>
+      </c>
+      <c r="E3" s="118" t="s">
+        <v>301</v>
+      </c>
+      <c r="F3" s="118" t="s">
+        <v>237</v>
+      </c>
+      <c r="G3" s="118" t="s">
+        <v>302</v>
+      </c>
+      <c r="H3" s="118" t="s">
         <v>303</v>
       </c>
-      <c r="B3" s="118" t="s">
-        <v>297</v>
-      </c>
-      <c r="C3" s="118" t="s">
-        <v>298</v>
-      </c>
-      <c r="D3" s="119" t="s">
-        <v>299</v>
-      </c>
-      <c r="E3" s="118" t="s">
-        <v>304</v>
-      </c>
-      <c r="F3" s="118" t="s">
-        <v>236</v>
-      </c>
-      <c r="G3" s="118" t="s">
-        <v>305</v>
-      </c>
-      <c r="H3" s="118" t="s">
-        <v>306</v>
-      </c>
       <c r="I3" s="120" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="118" t="s">
+        <v>304</v>
+      </c>
+      <c r="B4" s="118" t="s">
+        <v>305</v>
+      </c>
+      <c r="C4" s="118" t="s">
+        <v>295</v>
+      </c>
+      <c r="D4" s="119" t="s">
+        <v>296</v>
+      </c>
+      <c r="E4" s="118" t="s">
+        <v>306</v>
+      </c>
+      <c r="F4" s="118" t="s">
+        <v>237</v>
+      </c>
+      <c r="G4" s="118" t="s">
         <v>307</v>
       </c>
-      <c r="B4" s="118" t="s">
+      <c r="H4" s="118" t="s">
         <v>308</v>
       </c>
-      <c r="C4" s="118" t="s">
-        <v>298</v>
-      </c>
-      <c r="D4" s="119" t="s">
-        <v>299</v>
-      </c>
-      <c r="E4" s="118" t="s">
-        <v>309</v>
-      </c>
-      <c r="F4" s="118" t="s">
-        <v>236</v>
-      </c>
-      <c r="G4" s="118" t="s">
-        <v>310</v>
-      </c>
-      <c r="H4" s="118" t="s">
-        <v>311</v>
-      </c>
       <c r="I4" s="120" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="118" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" s="118" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" s="118" t="s">
+        <v>295</v>
+      </c>
+      <c r="D5" s="119" t="s">
+        <v>296</v>
+      </c>
+      <c r="E5" s="118" t="s">
+        <v>306</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G5" s="118" t="s">
+        <v>311</v>
+      </c>
+      <c r="H5" s="118" t="s">
         <v>312</v>
       </c>
-      <c r="B5" s="118" t="s">
-        <v>313</v>
-      </c>
-      <c r="C5" s="118" t="s">
-        <v>298</v>
-      </c>
-      <c r="D5" s="119" t="s">
-        <v>299</v>
-      </c>
-      <c r="E5" s="118" t="s">
-        <v>309</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="G5" s="118" t="s">
-        <v>314</v>
-      </c>
-      <c r="H5" s="118" t="s">
-        <v>315</v>
-      </c>
       <c r="I5" s="120" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="118" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B6" s="118" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C6" s="118" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D6" s="119" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E6" s="118" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F6" s="118" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G6" s="118" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H6" s="118" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I6" s="120" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="118" t="s">
+        <v>316</v>
+      </c>
+      <c r="B7" s="118" t="s">
+        <v>317</v>
+      </c>
+      <c r="C7" s="118" t="s">
+        <v>295</v>
+      </c>
+      <c r="D7" s="119" t="s">
+        <v>296</v>
+      </c>
+      <c r="E7" s="118" t="s">
+        <v>306</v>
+      </c>
+      <c r="F7" s="118" t="s">
+        <v>269</v>
+      </c>
+      <c r="G7" s="118" t="s">
+        <v>318</v>
+      </c>
+      <c r="H7" s="118" t="s">
         <v>319</v>
       </c>
-      <c r="B7" s="118" t="s">
-        <v>320</v>
-      </c>
-      <c r="C7" s="118" t="s">
-        <v>298</v>
-      </c>
-      <c r="D7" s="119" t="s">
-        <v>299</v>
-      </c>
-      <c r="E7" s="118" t="s">
-        <v>309</v>
-      </c>
-      <c r="F7" s="118" t="s">
-        <v>268</v>
-      </c>
-      <c r="G7" s="118" t="s">
-        <v>321</v>
-      </c>
-      <c r="H7" s="118" t="s">
-        <v>322</v>
-      </c>
       <c r="I7" s="120" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="118" t="s">
+        <v>320</v>
+      </c>
+      <c r="B8" s="118" t="s">
+        <v>321</v>
+      </c>
+      <c r="C8" s="118" t="s">
+        <v>295</v>
+      </c>
+      <c r="D8" s="119" t="s">
+        <v>296</v>
+      </c>
+      <c r="E8" s="118" t="s">
+        <v>306</v>
+      </c>
+      <c r="F8" s="118" t="s">
+        <v>269</v>
+      </c>
+      <c r="G8" s="118" t="s">
+        <v>322</v>
+      </c>
+      <c r="H8" s="118" t="s">
         <v>323</v>
       </c>
-      <c r="B8" s="118" t="s">
-        <v>324</v>
-      </c>
-      <c r="C8" s="118" t="s">
-        <v>298</v>
-      </c>
-      <c r="D8" s="119" t="s">
-        <v>299</v>
-      </c>
-      <c r="E8" s="118" t="s">
-        <v>309</v>
-      </c>
-      <c r="F8" s="118" t="s">
-        <v>268</v>
-      </c>
-      <c r="G8" s="118" t="s">
-        <v>325</v>
-      </c>
-      <c r="H8" s="118" t="s">
-        <v>326</v>
-      </c>
       <c r="I8" s="120" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9">
@@ -32886,10 +32838,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B1" s="122" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E1" s="123"/>
     </row>
@@ -32921,19 +32873,19 @@
         <v>1.0</v>
       </c>
       <c r="C4" s="125" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D4" s="125" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E4" s="126">
         <v>1.0</v>
       </c>
       <c r="F4" s="127" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G4" s="127" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5">
@@ -32944,10 +32896,10 @@
         <v>2.0</v>
       </c>
       <c r="F5" s="127" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G5" s="128" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6">
@@ -32955,19 +32907,19 @@
         <v>2.0</v>
       </c>
       <c r="C6" s="125" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D6" s="125" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E6" s="126">
         <v>1.0</v>
       </c>
       <c r="F6" s="127" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G6" s="127" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7">
@@ -32978,10 +32930,10 @@
         <v>2.0</v>
       </c>
       <c r="F7" s="127" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G7" s="128" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8">
@@ -32992,10 +32944,10 @@
         <v>3.0</v>
       </c>
       <c r="F8" s="127" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G8" s="127" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9">
@@ -33006,13 +32958,13 @@
         <v>4.0</v>
       </c>
       <c r="F9" s="127" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G9" s="130" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10">
@@ -33020,19 +32972,19 @@
         <v>3.0</v>
       </c>
       <c r="C10" s="125" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D10" s="125" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E10" s="126">
         <v>1.0</v>
       </c>
       <c r="F10" s="127" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G10" s="127" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11">
@@ -33043,10 +32995,10 @@
         <v>2.0</v>
       </c>
       <c r="F11" s="127" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G11" s="128" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12">
@@ -33054,19 +33006,19 @@
         <v>4.0</v>
       </c>
       <c r="C12" s="125" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D12" s="125" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E12" s="126">
         <v>1.0</v>
       </c>
       <c r="F12" s="131" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G12" s="127" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13">
@@ -33077,10 +33029,10 @@
         <v>2.0</v>
       </c>
       <c r="F13" s="127" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G13" s="127" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14">
@@ -33091,10 +33043,10 @@
         <v>3.0</v>
       </c>
       <c r="F14" s="127" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G14" s="127" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15">
@@ -33105,10 +33057,10 @@
         <v>4.0</v>
       </c>
       <c r="F15" s="127" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G15" s="127" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16">
@@ -33116,19 +33068,19 @@
         <v>5.0</v>
       </c>
       <c r="C16" s="125" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D16" s="125" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E16" s="126">
         <v>1.0</v>
       </c>
       <c r="F16" s="128" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G16" s="131" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17">
@@ -33139,10 +33091,10 @@
         <v>2.0</v>
       </c>
       <c r="F17" s="127" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G17" s="127" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18">
@@ -33153,10 +33105,10 @@
         <v>3.0</v>
       </c>
       <c r="F18" s="127" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G18" s="127" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19">
@@ -33164,19 +33116,19 @@
         <v>6.0</v>
       </c>
       <c r="C19" s="125" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D19" s="125" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E19" s="126">
         <v>1.0</v>
       </c>
       <c r="F19" s="128" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G19" s="131" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20">
@@ -33187,10 +33139,10 @@
         <v>2.0</v>
       </c>
       <c r="F20" s="127" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G20" s="127" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="21">
@@ -33201,10 +33153,10 @@
         <v>3.0</v>
       </c>
       <c r="F21" s="127" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G21" s="127" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22">
@@ -33215,10 +33167,10 @@
         <v>4.0</v>
       </c>
       <c r="F22" s="127" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G22" s="127" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23">
@@ -33226,19 +33178,19 @@
         <v>7.0</v>
       </c>
       <c r="C23" s="125" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D23" s="125" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E23" s="132">
         <v>1.0</v>
       </c>
       <c r="F23" s="128" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G23" s="127" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24">
@@ -33249,10 +33201,10 @@
         <v>2.0</v>
       </c>
       <c r="F24" s="127" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G24" s="127" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25">
@@ -33263,10 +33215,10 @@
         <v>3.0</v>
       </c>
       <c r="F25" s="127" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G25" s="127" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="26">
@@ -33274,19 +33226,19 @@
         <v>8.0</v>
       </c>
       <c r="C26" s="125" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D26" s="125" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E26" s="133">
         <v>1.0</v>
       </c>
       <c r="F26" s="128" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G26" s="127" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27">
@@ -33297,10 +33249,10 @@
         <v>2.0</v>
       </c>
       <c r="F27" s="127" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G27" s="127" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="28">
@@ -33311,10 +33263,10 @@
         <v>3.0</v>
       </c>
       <c r="F28" s="127" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G28" s="127" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29">
@@ -33322,19 +33274,19 @@
         <v>9.0</v>
       </c>
       <c r="C29" s="125" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D29" s="125" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E29" s="133">
         <v>1.0</v>
       </c>
       <c r="F29" s="128" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G29" s="127" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="30">
@@ -33345,10 +33297,10 @@
         <v>2.0</v>
       </c>
       <c r="F30" s="127" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G30" s="127" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="31">
@@ -33359,10 +33311,10 @@
         <v>3.0</v>
       </c>
       <c r="F31" s="127" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G31" s="127" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="32" ht="18.0" customHeight="1">
@@ -33370,19 +33322,19 @@
         <v>10.0</v>
       </c>
       <c r="C32" s="135" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D32" s="136" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E32" s="137">
         <v>1.0</v>
       </c>
       <c r="F32" s="65" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G32" s="65" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33" ht="17.25" customHeight="1">
@@ -33393,10 +33345,10 @@
         <v>2.0</v>
       </c>
       <c r="F33" s="65" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G33" s="138" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="34" ht="29.25" customHeight="1">
@@ -33407,10 +33359,10 @@
         <v>3.0</v>
       </c>
       <c r="F34" s="139" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G34" s="140" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="35">
@@ -33418,16 +33370,16 @@
         <v>11.0</v>
       </c>
       <c r="C35" s="125" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D35" s="125" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E35" s="141">
         <v>1.0</v>
       </c>
       <c r="F35" s="142" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G35" s="142"/>
     </row>
@@ -33439,7 +33391,7 @@
         <v>2.0</v>
       </c>
       <c r="F36" s="127" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G36" s="128"/>
     </row>
@@ -33451,10 +33403,10 @@
         <v>3.0</v>
       </c>
       <c r="F37" s="127" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G37" s="127" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="38">
@@ -33465,7 +33417,7 @@
         <v>4.0</v>
       </c>
       <c r="F38" s="127" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G38" s="143"/>
     </row>
@@ -33477,7 +33429,7 @@
         <v>5.0</v>
       </c>
       <c r="F39" s="127" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G39" s="143"/>
     </row>
@@ -33489,7 +33441,7 @@
         <v>6.0</v>
       </c>
       <c r="F40" s="127" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G40" s="143"/>
     </row>
@@ -33501,7 +33453,7 @@
         <v>7.0</v>
       </c>
       <c r="F41" s="127" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G41" s="143"/>
     </row>
@@ -33513,7 +33465,7 @@
         <v>8.0</v>
       </c>
       <c r="F42" s="127" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G42" s="143"/>
     </row>
@@ -33525,7 +33477,7 @@
         <v>9.0</v>
       </c>
       <c r="F43" s="127" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G43" s="143"/>
     </row>
@@ -33537,10 +33489,10 @@
         <v>10.0</v>
       </c>
       <c r="F44" s="127" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G44" s="127" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="45">
@@ -33548,16 +33500,16 @@
         <v>12.0</v>
       </c>
       <c r="C45" s="135" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D45" s="136" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E45" s="137">
         <v>1.0</v>
       </c>
       <c r="F45" s="65" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G45" s="65"/>
     </row>
@@ -33569,7 +33521,7 @@
         <v>2.0</v>
       </c>
       <c r="F46" s="65" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G46" s="138"/>
     </row>
@@ -33581,10 +33533,10 @@
         <v>3.0</v>
       </c>
       <c r="F47" s="139" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G47" s="140" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="48">
@@ -33592,16 +33544,16 @@
         <v>13.0</v>
       </c>
       <c r="C48" s="135" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D48" s="136" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E48" s="137">
         <v>1.0</v>
       </c>
       <c r="F48" s="65" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G48" s="65"/>
     </row>
@@ -33613,7 +33565,7 @@
         <v>2.0</v>
       </c>
       <c r="F49" s="65" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G49" s="138"/>
     </row>
@@ -33625,10 +33577,10 @@
         <v>3.0</v>
       </c>
       <c r="F50" s="139" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G50" s="140" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="51">
@@ -33636,16 +33588,16 @@
         <v>14.0</v>
       </c>
       <c r="C51" s="135" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D51" s="136" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E51" s="137">
         <v>1.0</v>
       </c>
       <c r="F51" s="65" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G51" s="65"/>
     </row>
@@ -33657,10 +33609,10 @@
         <v>2.0</v>
       </c>
       <c r="F52" s="65" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G52" s="138" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="53">
@@ -33679,16 +33631,16 @@
         <v>15.0</v>
       </c>
       <c r="C54" s="135" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D54" s="136" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E54" s="146">
         <v>1.0</v>
       </c>
       <c r="F54" s="65" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G54" s="147"/>
       <c r="H54" s="66"/>
@@ -33720,10 +33672,10 @@
         <v>2.0</v>
       </c>
       <c r="F55" s="149" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G55" s="138" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H55" s="66"/>
       <c r="I55" s="66"/>
@@ -33781,16 +33733,16 @@
         <v>16.0</v>
       </c>
       <c r="C57" s="135" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D57" s="136" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E57" s="146">
         <v>1.0</v>
       </c>
       <c r="F57" s="65" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G57" s="147"/>
       <c r="H57" s="66"/>
@@ -33822,10 +33774,10 @@
         <v>2.0</v>
       </c>
       <c r="F58" s="149" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G58" s="138" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="H58" s="66"/>
       <c r="I58" s="66"/>
@@ -33883,16 +33835,16 @@
         <v>17.0</v>
       </c>
       <c r="C60" s="135" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D60" s="136" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E60" s="146">
         <v>1.0</v>
       </c>
       <c r="F60" s="65" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G60" s="147"/>
       <c r="H60" s="66"/>
@@ -33924,10 +33876,10 @@
         <v>2.0</v>
       </c>
       <c r="F61" s="149" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G61" s="138" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H61" s="66"/>
       <c r="I61" s="66"/>
@@ -36975,7 +36927,7 @@
         <v>2.0</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C15" s="57" t="s">
         <v>113</v>
@@ -37141,7 +37093,7 @@
         <v>3.0</v>
       </c>
       <c r="B26" s="57" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C26" s="57" t="s">
         <v>142</v>
@@ -37223,7 +37175,7 @@
         <v>4.0</v>
       </c>
       <c r="B31" s="57" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C31" s="57" t="s">
         <v>113</v>
@@ -37319,7 +37271,7 @@
         <v>5.0</v>
       </c>
       <c r="B37" s="57" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C37" s="57" t="s">
         <v>113</v>
@@ -37345,7 +37297,7 @@
         <v>151</v>
       </c>
       <c r="F38" s="59" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="39">
@@ -37359,7 +37311,7 @@
         <v>152</v>
       </c>
       <c r="F39" s="59" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="40">
@@ -37387,7 +37339,7 @@
         <v>153</v>
       </c>
       <c r="F41" s="59" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="42">
@@ -37443,7 +37395,7 @@
         <v>6.0</v>
       </c>
       <c r="B45" s="57" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C45" s="57" t="s">
         <v>113</v>
@@ -37469,7 +37421,7 @@
         <v>157</v>
       </c>
       <c r="F46" s="59" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="47">
@@ -37483,7 +37435,7 @@
         <v>158</v>
       </c>
       <c r="F47" s="59" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="48">
@@ -37511,7 +37463,7 @@
         <v>153</v>
       </c>
       <c r="F49" s="59" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="50">
@@ -37567,7 +37519,7 @@
         <v>7.0</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C53" s="57" t="s">
         <v>113</v>
@@ -37593,7 +37545,7 @@
         <v>162</v>
       </c>
       <c r="F54" s="59" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="55">
@@ -37607,7 +37559,7 @@
         <v>163</v>
       </c>
       <c r="F55" s="59" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="56">
@@ -37635,7 +37587,7 @@
         <v>153</v>
       </c>
       <c r="F57" s="59" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="58">
@@ -37691,7 +37643,7 @@
         <v>8.0</v>
       </c>
       <c r="B61" s="57" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C61" s="57" t="s">
         <v>113</v>
@@ -37717,7 +37669,7 @@
         <v>167</v>
       </c>
       <c r="F62" s="59" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="63">
@@ -37731,7 +37683,7 @@
         <v>168</v>
       </c>
       <c r="F63" s="59" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="64">
@@ -37742,10 +37694,10 @@
         <v>4.0</v>
       </c>
       <c r="E64" s="59" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F64" s="59" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="65">
@@ -37756,10 +37708,10 @@
         <v>5.0</v>
       </c>
       <c r="E65" s="59" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F65" s="59" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="66">
@@ -37787,7 +37739,7 @@
         <v>9.0</v>
       </c>
       <c r="B67" s="57" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C67" s="57" t="s">
         <v>113</v>
@@ -37799,7 +37751,7 @@
         <v>171</v>
       </c>
       <c r="F67" s="59" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="68">
@@ -37841,7 +37793,7 @@
         <v>10.0</v>
       </c>
       <c r="B70" s="57" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C70" s="57" t="s">
         <v>113</v>
@@ -37895,7 +37847,7 @@
         <v>11.0</v>
       </c>
       <c r="B73" s="57" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C73" s="57" t="s">
         <v>113</v>
@@ -37907,7 +37859,7 @@
         <v>181</v>
       </c>
       <c r="F73" s="59" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="74">
@@ -37949,7 +37901,7 @@
         <v>12.0</v>
       </c>
       <c r="B76" s="57" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C76" s="57" t="s">
         <v>113</v>
@@ -37961,7 +37913,7 @@
         <v>185</v>
       </c>
       <c r="F76" s="59" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="77">
@@ -38003,7 +37955,7 @@
         <v>13.0</v>
       </c>
       <c r="B79" s="57" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C79" s="57" t="s">
         <v>113</v>
@@ -38015,7 +37967,7 @@
         <v>189</v>
       </c>
       <c r="F79" s="59" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="80">
@@ -38029,7 +37981,7 @@
         <v>191</v>
       </c>
       <c r="F80" s="70" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="81">
@@ -38071,7 +38023,7 @@
         <v>14.0</v>
       </c>
       <c r="B83" s="57" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C83" s="57" t="s">
         <v>113</v>
@@ -38083,7 +38035,7 @@
         <v>189</v>
       </c>
       <c r="F83" s="59" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="84">
@@ -38139,7 +38091,7 @@
         <v>15.0</v>
       </c>
       <c r="B87" s="57" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C87" s="57" t="s">
         <v>113</v>
@@ -38151,7 +38103,7 @@
         <v>189</v>
       </c>
       <c r="F87" s="59" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="88">
@@ -38165,7 +38117,7 @@
         <v>199</v>
       </c>
       <c r="F88" s="70" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="89">
@@ -38207,7 +38159,7 @@
         <v>16.0</v>
       </c>
       <c r="B91" s="57" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C91" s="57" t="s">
         <v>113</v>
@@ -38219,7 +38171,7 @@
         <v>189</v>
       </c>
       <c r="F91" s="59" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="92">
@@ -38233,7 +38185,7 @@
         <v>203</v>
       </c>
       <c r="F92" s="70" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="93">
@@ -38275,7 +38227,7 @@
         <v>17.0</v>
       </c>
       <c r="B95" s="57" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C95" s="57" t="s">
         <v>113</v>
@@ -38287,7 +38239,7 @@
         <v>189</v>
       </c>
       <c r="F95" s="59" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="96">
@@ -38301,7 +38253,7 @@
         <v>207</v>
       </c>
       <c r="F96" s="70" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="97">
@@ -38312,10 +38264,10 @@
         <v>3.0</v>
       </c>
       <c r="E97" s="59" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F97" s="59" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="98">
@@ -38357,7 +38309,7 @@
         <v>18.0</v>
       </c>
       <c r="B100" s="57" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C100" s="57" t="s">
         <v>113</v>
@@ -38369,7 +38321,7 @@
         <v>189</v>
       </c>
       <c r="F100" s="59" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="101">
@@ -38383,7 +38335,7 @@
         <v>211</v>
       </c>
       <c r="F101" s="70" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="102">
@@ -38394,10 +38346,10 @@
         <v>3.0</v>
       </c>
       <c r="E102" s="59" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F102" s="59" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="103">
@@ -38439,7 +38391,7 @@
         <v>19.0</v>
       </c>
       <c r="B105" s="57" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C105" s="57" t="s">
         <v>113</v>
@@ -38451,7 +38403,7 @@
         <v>189</v>
       </c>
       <c r="F105" s="59" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="106">
@@ -38465,7 +38417,7 @@
         <v>211</v>
       </c>
       <c r="F106" s="70" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="107">
@@ -38476,10 +38428,10 @@
         <v>3.0</v>
       </c>
       <c r="E107" s="59" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F107" s="59" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="108">
@@ -38521,7 +38473,7 @@
         <v>20.0</v>
       </c>
       <c r="B110" s="57" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C110" s="57" t="s">
         <v>113</v>
@@ -38533,7 +38485,7 @@
         <v>189</v>
       </c>
       <c r="F110" s="59" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="111">
@@ -38547,7 +38499,7 @@
         <v>211</v>
       </c>
       <c r="F111" s="70" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="112">
@@ -38561,7 +38513,7 @@
         <v>220</v>
       </c>
       <c r="F112" s="59" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="113">
@@ -38575,7 +38527,7 @@
         <v>221</v>
       </c>
       <c r="F113" s="59" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="114">
@@ -38702,7 +38654,7 @@
   <sheetData>
     <row r="5">
       <c r="B5" s="63" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C5" s="47" t="s">
         <v>107</v>
@@ -38725,19 +38677,19 @@
         <v>1.0</v>
       </c>
       <c r="C6" s="125" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D6" s="69" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E6" s="58">
         <v>1.0</v>
       </c>
       <c r="F6" s="127" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G6" s="127" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7">
@@ -38748,10 +38700,10 @@
         <v>2.0</v>
       </c>
       <c r="F7" s="127" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="G7" s="128" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8">
@@ -38812,7 +38764,7 @@
     </row>
     <row r="16">
       <c r="B16" s="63" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C16" s="47" t="s">
         <v>107</v>
@@ -38835,19 +38787,19 @@
         <v>2.0</v>
       </c>
       <c r="C17" s="125" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D17" s="69" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E17" s="58">
         <v>1.0</v>
       </c>
       <c r="F17" s="127" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G17" s="127" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="18">
@@ -38858,10 +38810,10 @@
         <v>2.0</v>
       </c>
       <c r="F18" s="127" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="G18" s="128" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="19">
@@ -38922,7 +38874,7 @@
     </row>
     <row r="27">
       <c r="B27" s="63" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C27" s="47" t="s">
         <v>107</v>
@@ -38945,19 +38897,19 @@
         <v>1.0</v>
       </c>
       <c r="C28" s="125" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D28" s="69" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E28" s="58">
         <v>1.0</v>
       </c>
       <c r="F28" s="127" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G28" s="127" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="29">
@@ -38968,10 +38920,10 @@
         <v>2.0</v>
       </c>
       <c r="F29" s="127" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="G29" s="128" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="30">
